--- a/2 course/lab432/lab432.xlsx
+++ b/2 course/lab432/lab432.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kekoveca/Documents/MIPT/physics/2 course/lab432/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Physics_labs\2 course\lab432\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06EBB8B-5C06-F44E-9918-3511180114F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2771EDC-2D69-4512-95F8-6B715E987A95}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7FD69A57-2981-3A40-8853-6D596F449D20}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Рабочая частота</t>
   </si>
@@ -99,13 +91,62 @@
   </si>
   <si>
     <t>темная, дел</t>
+  </si>
+  <si>
+    <t>$\Lambda, \text{ мкм}$</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>$\nu, \text{МГц}$</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>$v, \text{ м/с}$</t>
+  </si>
+  <si>
+    <t>$\nu, \text{ МГц}$</t>
+  </si>
+  <si>
+    <t>$N, \text{ мм}$</t>
+  </si>
+  <si>
+    <t>\Lambda, \text{ мкм}$</t>
+  </si>
+  <si>
+    <t>Метод</t>
+  </si>
+  <si>
+    <t>Дифракционная картина</t>
+  </si>
+  <si>
+    <t>Тёмное поле</t>
+  </si>
+  <si>
+    <t>$v, \text{ м/c}$</t>
+  </si>
+  <si>
+    <t>$1429 \pm 50$</t>
+  </si>
+  <si>
+    <t>$1627 \pm 40$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +167,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,9 +211,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,33 +543,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880BEFD3-C535-A94D-9CC3-FA190407952B}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1.3058479999999999</v>
       </c>
@@ -524,8 +593,15 @@
         <f>D2*10</f>
         <v>658.00000000000011</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1">
+        <f>28*10^-2</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -536,8 +612,15 @@
         <f>2*E2</f>
         <v>1316.0000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <f>6400*10^(-10)</f>
+        <v>6.4000000000000001E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -546,16 +629,27 @@
         <v>1718.4959680000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -568,8 +662,22 @@
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="8">
+        <f>E7*$H$2*$H$3/(0.5*A8*10^-6) * 10^6</f>
+        <v>1357.5757575757577</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1.044</v>
+      </c>
+      <c r="H7" s="8">
+        <f>G7*F7</f>
+        <v>1417.3090909090911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>(6+100+92)*4</f>
         <v>792</v>
@@ -579,8 +687,22 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F10" si="0">E8*$H$2*$H$3/(0.5*A9*10^-6) * 10^6</f>
+        <v>1210.8108108108111</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1.1996</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" ref="H8:H10" si="1">G8*F8</f>
+        <v>1452.4886486486489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>(16+200+6)*4</f>
         <v>888</v>
@@ -590,8 +712,22 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>1088.2591093117412</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1.3247</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>1441.6168421052637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>(28+200+19)*4</f>
         <v>988</v>
@@ -601,8 +737,22 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8">
+        <f>E10*$H$2*$H$3/(0.5*A11*10^-6) * 10^6</f>
+        <v>946.47887323943689</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1.4834000000000001</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>1404.0067605633808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>(199+85)*4</f>
         <v>1136</v>
@@ -614,16 +764,20 @@
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="H11" s="8">
+        <f>AVERAGE(H7:H10)</f>
+        <v>1428.8553355565959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -631,7 +785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f>4*46</f>
         <v>184</v>
@@ -640,14 +794,14 @@
         <v>1.01187</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -658,7 +812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>9</v>
       </c>
@@ -667,70 +821,70 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>30</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ref="B18:B24" si="0">A18*$B$16</f>
+        <f t="shared" ref="B18:B24" si="2">A18*$B$16</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>51</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>73</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>94</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.8800000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>115</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>136</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>157</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -743,8 +897,20 @@
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -758,8 +924,22 @@
       <c r="D27" s="1">
         <v>1.1113</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27" s="7">
+        <v>1.1113</v>
+      </c>
+      <c r="G27" s="10">
+        <f>(B27-A27)/21</f>
+        <v>7.4761904761904763</v>
+      </c>
+      <c r="H27" s="2">
+        <v>11</v>
+      </c>
+      <c r="I27" s="8">
+        <f>2*1000*G27/(H27-1)</f>
+        <v>1495.2380952380952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>7</v>
       </c>
@@ -773,8 +953,22 @@
       <c r="D28" s="1">
         <v>1.2023999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" s="7">
+        <v>1.2023999999999999</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" ref="G28:G32" si="3">(B28-A28)/21</f>
+        <v>7.6190476190476186</v>
+      </c>
+      <c r="H28" s="2">
+        <v>12</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" ref="I28:I32" si="4">2*1000*G28/(H28-1)</f>
+        <v>1385.2813852813852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>10</v>
       </c>
@@ -788,8 +982,22 @@
       <c r="D29" s="1">
         <v>1.3036000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29" s="7">
+        <v>1.3036000000000001</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="3"/>
+        <v>7.0476190476190474</v>
+      </c>
+      <c r="H29" s="2">
+        <v>12</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="4"/>
+        <v>1281.3852813852814</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -803,8 +1011,22 @@
       <c r="D30" s="1">
         <v>1.4006000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30" s="7">
+        <v>1.4006000000000001</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="3"/>
+        <v>5.9523809523809526</v>
+      </c>
+      <c r="H30" s="2">
+        <v>11</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="4"/>
+        <v>1190.4761904761904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -818,8 +1040,22 @@
       <c r="D31" s="1">
         <v>1.5087999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31" s="7">
+        <v>1.5087999999999999</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="3"/>
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="H31" s="2">
+        <v>11</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="4"/>
+        <v>1114.2857142857142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -832,6 +1068,45 @@
       </c>
       <c r="D32" s="1">
         <v>1.6194999999999999</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1.6194999999999999</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="3"/>
+        <v>5.6666666666666661</v>
+      </c>
+      <c r="H32" s="2">
+        <v>12</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="4"/>
+        <v>1030.3030303030303</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -845,5 +1120,6 @@
     <mergeCell ref="D7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>